--- a/result/test/CT_Value.xlsx
+++ b/result/test/CT_Value.xlsx
@@ -477,49 +477,49 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>45.68</v>
+        <v>45.84</v>
       </c>
       <c r="C2">
-        <v>24.71</v>
+        <v>24.78</v>
       </c>
       <c r="D2">
-        <v>26.25</v>
+        <v>26.14</v>
       </c>
       <c r="E2">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="F2">
-        <v>24.83</v>
+        <v>24.89</v>
       </c>
       <c r="G2">
-        <v>23.05</v>
+        <v>23.18</v>
       </c>
       <c r="H2">
-        <v>26.98</v>
+        <v>26.84</v>
       </c>
       <c r="I2">
-        <v>22.07</v>
+        <v>22.17</v>
       </c>
       <c r="J2">
+        <v>25.6</v>
+      </c>
+      <c r="K2">
+        <v>26.72</v>
+      </c>
+      <c r="L2">
+        <v>24.5</v>
+      </c>
+      <c r="M2">
+        <v>25.25</v>
+      </c>
+      <c r="N2">
         <v>25.85</v>
       </c>
-      <c r="K2">
+      <c r="O2">
+        <v>25.8</v>
+      </c>
+      <c r="P2">
         <v>26.63</v>
-      </c>
-      <c r="L2">
-        <v>24.41</v>
-      </c>
-      <c r="M2">
-        <v>25.37</v>
-      </c>
-      <c r="N2">
-        <v>25.83</v>
-      </c>
-      <c r="O2">
-        <v>25.92</v>
-      </c>
-      <c r="P2">
-        <v>26.9</v>
       </c>
     </row>
   </sheetData>

--- a/result/test/CT_Value.xlsx
+++ b/result/test/CT_Value.xlsx
@@ -477,49 +477,49 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>45.84</v>
+        <v>44.79</v>
       </c>
       <c r="C2">
-        <v>24.78</v>
+        <v>24.32</v>
       </c>
       <c r="D2">
-        <v>26.14</v>
+        <v>26.19</v>
       </c>
       <c r="E2">
-        <v>26.5</v>
+        <v>26.56</v>
       </c>
       <c r="F2">
-        <v>24.89</v>
+        <v>24.97</v>
       </c>
       <c r="G2">
-        <v>23.18</v>
+        <v>23.27</v>
       </c>
       <c r="H2">
-        <v>26.84</v>
+        <v>26.74</v>
       </c>
       <c r="I2">
-        <v>22.17</v>
+        <v>22.35</v>
       </c>
       <c r="J2">
-        <v>25.6</v>
+        <v>26.04</v>
       </c>
       <c r="K2">
-        <v>26.72</v>
+        <v>27.1</v>
       </c>
       <c r="L2">
-        <v>24.5</v>
+        <v>24.42</v>
       </c>
       <c r="M2">
-        <v>25.25</v>
+        <v>25.03</v>
       </c>
       <c r="N2">
-        <v>25.85</v>
+        <v>25.57</v>
       </c>
       <c r="O2">
-        <v>25.8</v>
+        <v>25.89</v>
       </c>
       <c r="P2">
-        <v>26.63</v>
+        <v>26.74</v>
       </c>
     </row>
   </sheetData>
